--- a/datasets-summary.xlsx
+++ b/datasets-summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebreagor/Documents/hudspeth-lab/grn-cnn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19E225-AAAF-D840-B8F3-72D4994C4A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B2B8C-2031-2D4F-8EBA-ED2056F7F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{E26B95C3-31AB-AB48-8817-B97A12D71819}"/>
+    <workbookView xWindow="-4140" yWindow="-19980" windowWidth="28800" windowHeight="16100" xr2:uid="{E26B95C3-31AB-AB48-8817-B97A12D71819}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>mHSC-E</t>
   </si>
@@ -108,7 +108,103 @@
     <t>Split</t>
   </si>
   <si>
-    <t>DENSITY (% TRUE)</t>
+    <t>Kolla et al., 2020</t>
+  </si>
+  <si>
+    <t>EVALUATION</t>
+  </si>
+  <si>
+    <t>mOHC</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>E14, E16, P1, P7</t>
+  </si>
+  <si>
+    <t>166 (FT)</t>
+  </si>
+  <si>
+    <t>1,112 (FT)</t>
+  </si>
+  <si>
+    <t>Wang et al., 2021</t>
+  </si>
+  <si>
+    <t>160 (FT)</t>
+  </si>
+  <si>
+    <t>768 (FT)</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>scATAC-seq</t>
+  </si>
+  <si>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>0h, 12h, 24h, 36h, 72h, 96h</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Cochlea</t>
+  </si>
+  <si>
+    <t>H1 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE75748 </t>
+  </si>
+  <si>
+    <t>0h, 12h, 24h, 48h, 72h</t>
+  </si>
+  <si>
+    <t>5G6GR cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE98664 </t>
+  </si>
+  <si>
+    <t>Bone Marrow</t>
+  </si>
+  <si>
+    <t>12wk</t>
+  </si>
+  <si>
+    <t>P2 (Apex, Base)</t>
+  </si>
+  <si>
+    <t>0d, 6d, 8d, 14d, 21d</t>
+  </si>
+  <si>
+    <t>iPSCs</t>
+  </si>
+  <si>
+    <t>GSE81252</t>
+  </si>
+  <si>
+    <t>GSE137299</t>
+  </si>
+  <si>
+    <t>14.93% (FT)</t>
+  </si>
+  <si>
+    <t>20.83% (FT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE157398 </t>
+  </si>
+  <si>
+    <t>DENSITY</t>
   </si>
 </sst>
 </file>
@@ -140,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -307,6 +403,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -319,9 +428,7 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -332,15 +439,65 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -350,7 +507,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -363,7 +520,81 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,21 +647,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,26 +668,122 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,251 +1102,406 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
-    <row r="2" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="F2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="b">
+      <c r="L2" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>24</v>
+      <c r="M2" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="F3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12">
+      <c r="H3" s="12">
         <v>758</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="J3" s="9">
         <v>541</v>
       </c>
-      <c r="G3" s="8">
-        <f>37*F3</f>
+      <c r="K3" s="8">
+        <f>37*J3</f>
         <v>20017</v>
       </c>
-      <c r="H3" s="8">
+      <c r="L3" s="8">
         <v>3166</v>
       </c>
-      <c r="I3" s="2">
-        <f>H3/G3</f>
+      <c r="M3" s="2">
+        <f>L3/K3</f>
         <v>0.15816555927461656</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13">
+      <c r="F4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="13">
         <v>421</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5">
+      <c r="J4" s="5">
         <v>642</v>
       </c>
-      <c r="G4" s="6">
-        <f>125*F4</f>
+      <c r="K4" s="6">
+        <f>125*J4</f>
         <v>80250</v>
       </c>
-      <c r="H4" s="6">
+      <c r="L4" s="6">
         <v>20580</v>
       </c>
-      <c r="I4" s="3">
-        <f>H4/G4</f>
+      <c r="M4" s="3">
+        <f>L4/K4</f>
         <v>0.25644859813084114</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="13">
+      <c r="F5" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="13">
         <v>1071</v>
       </c>
-      <c r="E5" s="5">
+      <c r="I5" s="5">
         <v>33</v>
       </c>
-      <c r="F5" s="5">
+      <c r="J5" s="5">
         <v>533</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G7" si="0">E5*F5</f>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K7" si="0">I5*J5</f>
         <v>17589</v>
       </c>
-      <c r="H5" s="6">
+      <c r="L5" s="6">
         <v>9592</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" ref="I5:I8" si="1">H5/G5</f>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M8" si="1">L5/K5</f>
         <v>0.54534083802376487</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="13">
+      <c r="B6" s="59"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="13">
         <v>889</v>
       </c>
-      <c r="E6" s="5">
+      <c r="I6" s="5">
         <v>23</v>
       </c>
-      <c r="F6" s="5">
+      <c r="J6" s="5">
         <v>523</v>
       </c>
-      <c r="G6" s="6">
-        <f>E6*F6</f>
+      <c r="K6" s="6">
+        <f>I6*J6</f>
         <v>12029</v>
       </c>
-      <c r="H6" s="6">
+      <c r="L6" s="6">
         <v>6587</v>
       </c>
-      <c r="I6" s="3">
-        <f>H6/G6</f>
+      <c r="M6" s="3">
+        <f>L6/K6</f>
         <v>0.54759331615263118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="13">
+      <c r="B7" s="60"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="13">
         <v>847</v>
       </c>
-      <c r="E7" s="5">
+      <c r="I7" s="5">
         <v>16</v>
       </c>
-      <c r="F7" s="5">
+      <c r="J7" s="5">
         <v>516</v>
       </c>
-      <c r="G7" s="6">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>8256</v>
       </c>
-      <c r="H7" s="6">
+      <c r="L7" s="6">
         <v>4026</v>
       </c>
-      <c r="I7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
         <v>0.48764534883720928</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="F8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="29">
+      <c r="H8" s="29">
         <v>425</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="I8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="31">
+      <c r="J8" s="31">
         <v>536</v>
       </c>
-      <c r="G8" s="32">
-        <f>33*F8</f>
+      <c r="K8" s="32">
+        <f>33*J8</f>
         <v>17688</v>
       </c>
-      <c r="H8" s="32">
+      <c r="L8" s="32">
         <v>6171</v>
       </c>
-      <c r="I8" s="33">
+      <c r="M8" s="33">
         <f t="shared" si="1"/>
         <v>0.34888059701492535</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1563</v>
+      </c>
+      <c r="I9" s="36">
+        <v>56</v>
+      </c>
+      <c r="J9" s="37">
+        <v>556</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="23">
+        <v>402</v>
+      </c>
+      <c r="I10" s="24">
+        <v>48</v>
+      </c>
+      <c r="J10" s="25">
+        <v>384</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="11">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" fitToWidth="2" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/datasets-summary.xlsx
+++ b/datasets-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebreagor/Documents/hudspeth-lab/grn-cnn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B2B8C-2031-2D4F-8EBA-ED2056F7F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF439E-6748-7740-9977-6A478EE3BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-19980" windowWidth="28800" windowHeight="16100" xr2:uid="{E26B95C3-31AB-AB48-8817-B97A12D71819}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{E26B95C3-31AB-AB48-8817-B97A12D71819}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -135,12 +135,6 @@
     <t>Wang et al., 2021</t>
   </si>
   <si>
-    <t>160 (FT)</t>
-  </si>
-  <si>
-    <t>768 (FT)</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
@@ -198,13 +192,19 @@
     <t>14.93% (FT)</t>
   </si>
   <si>
-    <t>20.83% (FT)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GSE157398 </t>
   </si>
   <si>
     <t>DENSITY</t>
+  </si>
+  <si>
+    <t>764 (FT)</t>
+  </si>
+  <si>
+    <t>157 (FT)</t>
+  </si>
+  <si>
+    <t>20.55% (FT)</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,13 +1150,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>16</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1191,19 +1191,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>21</v>
@@ -1234,17 +1234,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="13">
@@ -1273,17 +1273,17 @@
         <v>0</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="52" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="13">
@@ -1374,19 +1374,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>22</v>
@@ -1417,19 +1417,19 @@
         <v>26</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>25</v>
@@ -1450,42 +1450,42 @@
         <v>30</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="23">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I10" s="24">
         <v>48</v>
       </c>
       <c r="J10" s="25">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
